--- a/tests/excel_sheets/manual_tests.xlsx
+++ b/tests/excel_sheets/manual_tests.xlsx
@@ -782,10 +782,10 @@
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -848,13 +848,13 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D13">
